--- a/excel/GameConfig.xlsx
+++ b/excel/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="ShopConfig" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Kun</author>
   </authors>
   <commentList>
-    <comment ref="C17" authorId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="E11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="1">
+    <comment ref="F11" authorId="1">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="2">
+    <comment ref="I11" authorId="2">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L17" authorId="0">
+    <comment ref="J11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,10 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="130">
-  <si>
-    <t>//标记后面列的数字表示接下来的数据读取到多少列结束</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
   <si>
     <t>[base]</t>
   </si>
@@ -169,15 +166,6 @@
     <t>[other]</t>
   </si>
   <si>
-    <t>AAA=11</t>
-  </si>
-  <si>
-    <t>[games]</t>
-  </si>
-  <si>
-    <t>ABA=121</t>
-  </si>
-  <si>
     <t>[goods]</t>
   </si>
   <si>
@@ -190,79 +178,67 @@
     <t>int</t>
   </si>
   <si>
-    <t>现在是A2的参数哈</t>
-  </si>
-  <si>
-    <t>//ID</t>
-  </si>
-  <si>
-    <t>GoodsID</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>Desc_CN</t>
-  </si>
-  <si>
-    <t>Limit</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>//主键ID</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>货币符号</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>可购买次数</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>中文描述</t>
+  </si>
+  <si>
+    <t>商品Icon</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>goodsId</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
   </si>
   <si>
     <t>icon</t>
   </si>
   <si>
-    <t>ExtraReward</t>
-  </si>
-  <si>
-    <t>FirstReward</t>
-  </si>
-  <si>
-    <t>Reward</t>
-  </si>
-  <si>
-    <t>//ShopID</t>
-  </si>
-  <si>
-    <t>IAP_ID</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>符号</t>
-  </si>
-  <si>
-    <t>价格RMB</t>
-  </si>
-  <si>
-    <t>名字</t>
-  </si>
-  <si>
-    <t>中文描述</t>
-  </si>
-  <si>
-    <t>可购买次数</t>
-  </si>
-  <si>
-    <t>商品Icon</t>
-  </si>
-  <si>
-    <t>非首充奖励</t>
-  </si>
-  <si>
-    <t>首充双倍奖励</t>
-  </si>
-  <si>
-    <t>奖励</t>
+    <t>reward</t>
   </si>
   <si>
     <t>AD</t>
@@ -738,7 +714,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,12 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,10 +1072,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1114,16 +1084,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1133,52 +1103,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1187,16 +1157,19 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1205,45 +1178,42 @@
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1303,9 +1273,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,45 +1631,39 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L18" sqref="L$1:L$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.66666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6666666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.41666666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.41666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.66666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="19.0833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="27.125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.25" style="1" customWidth="1"/>
-    <col min="16" max="17" width="7.90833333333333" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.41666666666667" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33333333333333" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="27.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="1.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="6.25" style="1" customWidth="1"/>
+    <col min="13" max="14" width="7.90833333333333" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.41666666666667" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.33333333333333" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1721,1085 +1682,907 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="21"/>
-      <c r="O15" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="J11" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="4" t="s">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="20" t="s">
+      <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="I12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="J12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="4" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5">
+        <v>1001</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5">
+        <v>10</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="J13" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="19" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="5">
+        <v>1002</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="E14" s="6">
+        <v>0.99</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="H14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="J14" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="5">
+        <v>1003</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.99</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="5">
+        <v>1004</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2.99</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="6">
+        <v>4.99</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="5">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6" t="s">
-        <v>40</v>
+      <c r="D18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="F18" s="5">
+        <v>-1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="5">
+        <v>53</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="7">
+        <v>2001</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7">
         <v>10</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6">
+      <c r="G19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="7">
+        <v>2002</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="8">
         <v>0.99</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" s="5">
+      <c r="F20" s="7">
         <v>-1</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="M19" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="5">
-        <v>1003</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6">
+      <c r="G20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <v>2003</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="8">
         <v>1.99</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="5">
+      <c r="F21" s="7">
         <v>-1</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M20" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="5">
-        <v>1004</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="G21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <v>2004</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="8">
         <v>2.99</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="5">
+      <c r="F22" s="7">
         <v>-1</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" s="21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="5">
-        <v>1005</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="G22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8">
         <v>4.99</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="F23" s="7">
         <v>-1</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="5">
-        <v>1006</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="6">
-        <v>11.99</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="5">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M23" s="21">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="G23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="7">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="8" t="s">
-        <v>64</v>
+      <c r="D24" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="8">
+        <v>11.99</v>
+      </c>
+      <c r="F24" s="7">
+        <v>-1</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="7">
+        <v>76</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="9">
+        <v>3001</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9">
+        <v>3</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9">
         <v>10</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="7">
-        <v>2002</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="8">
+      <c r="G25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="9">
+        <v>3002</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="10">
         <v>0.99</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="F26" s="9">
         <v>-1</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="M25" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="7">
-        <v>2003</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="G26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="9">
+        <v>3003</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="9">
+        <v>3</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="10">
         <v>1.99</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="F27" s="9">
         <v>-1</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="7">
-        <v>2004</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="G27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="9">
+        <v>3004</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="9">
+        <v>3</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="10">
         <v>2.99</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="F28" s="9">
         <v>-1</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="M27" s="21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="G28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="9">
+        <v>3005</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="10">
         <v>4.99</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="F29" s="9">
         <v>-1</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="M28" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="7">
-        <v>2</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="8">
-        <v>11.99</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M29" s="21">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="G29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="9">
-        <v>3001</v>
+        <v>3006</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
-        <v>87</v>
+      <c r="D30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="10">
+        <v>11.99</v>
+      </c>
+      <c r="F30" s="9">
+        <v>-1</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="9">
-        <v>10</v>
+        <v>99</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>99</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="9">
-        <v>3002</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="10">
+        <v>100</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="11">
+        <v>4001</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="11">
+        <v>4</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="12">
         <v>0.99</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="M31" s="21">
+      <c r="F31" s="11">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="13">
+        <v>5001</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="9">
-        <v>3003</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="9">
-        <v>3</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1.99</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="9">
-        <v>3004</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="9">
-        <v>3</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="10">
-        <v>2.99</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="M33" s="21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="9">
-        <v>3005</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="9">
-        <v>3</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="10">
+      <c r="D32" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="13">
+        <v>15.99</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="13">
+        <v>5002</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="13">
+        <v>5</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13">
         <v>4.99</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="M34" s="21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="9">
-        <v>3006</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="9">
-        <v>3</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="10">
+      <c r="F33" s="13"/>
+      <c r="G33" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="13"/>
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="13">
+        <v>5003</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="16">
+        <v>5</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="16">
         <v>11.99</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="9">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" s="21">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="11">
-        <v>4001</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="F34" s="16"/>
+      <c r="G34" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="11">
-        <v>4</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="12">
+      <c r="H34" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="26"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4">
+        <v>7001</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="4">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>11</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="4">
+        <v>7002</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="4">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="4">
         <v>0.99</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="11">
-        <v>1</v>
-      </c>
-      <c r="I36" s="11"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="M36" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="13">
-        <v>5001</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="13">
-        <v>6</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="13">
-        <v>15.99</v>
-      </c>
-      <c r="F37" s="15" t="s">
+      <c r="F36" s="4">
+        <v>11</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="H36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H37" s="13">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="21">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="13">
-        <v>5002</v>
-      </c>
-      <c r="B38" s="13" t="s">
+      <c r="I36" s="27"/>
+      <c r="J36" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="13">
-        <v>5</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="13">
-        <v>4.99</v>
-      </c>
-      <c r="F38" s="15" t="s">
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="4">
+        <v>7003</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="21">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="13">
-        <v>5003</v>
-      </c>
-      <c r="B39" s="16" t="s">
+      <c r="C37" s="4">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F37" s="4">
+        <v>11</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="16">
-        <v>5</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="16">
-        <v>11.99</v>
-      </c>
-      <c r="F39" s="17" t="s">
+      <c r="H37" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="21">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="4">
-        <v>7001</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="4">
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="4">
+        <v>7004</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="4">
         <v>7</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="D38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F38" s="4">
         <v>11</v>
       </c>
-      <c r="I40" s="28"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="30" t="s">
+      <c r="G38" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="M40" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="4">
-        <v>7002</v>
-      </c>
-      <c r="B41" s="18" t="s">
+      <c r="H38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="4">
-        <v>7</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="4">
-        <v>11</v>
-      </c>
-      <c r="I41" s="28"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M41" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="4">
-        <v>7003</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="4">
-        <v>7</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="4">
-        <v>11</v>
-      </c>
-      <c r="I42" s="28"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="M42" s="21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="4">
-        <v>7004</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="4">
-        <v>7</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H43" s="4">
-        <v>11</v>
-      </c>
-      <c r="I43" s="28"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="M43" s="21">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J16">
+  <conditionalFormatting sqref="A12:D12 G12:I12">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16:D16 F16:G16 I16 K16">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/GameConfig.xlsx
+++ b/excel/GameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12525"/>
   </bookViews>
   <sheets>
     <sheet name="ShopConfig" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>Kun</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0">
+    <comment ref="C13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="E13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1">
+    <comment ref="F13" authorId="1">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="2">
+    <comment ref="I13" authorId="2">
       <text>
         <r>
           <rPr>
@@ -118,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0">
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
   <si>
     <t>[base]</t>
   </si>
@@ -160,10 +160,16 @@
     <t>SH=1</t>
   </si>
   <si>
-    <t>GM=0</t>
+    <t>GM=1</t>
   </si>
   <si>
     <t>[other]</t>
+  </si>
+  <si>
+    <t>[paytest]</t>
+  </si>
+  <si>
+    <t>com.jqmnqdy.aom.tier1=com.jqmnqdy.aom.tier2</t>
   </si>
   <si>
     <t>[goods]</t>
@@ -517,7 +523,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -553,34 +559,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -594,14 +572,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,6 +611,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,7 +676,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -765,49 +771,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,103 +903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,21 +976,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1013,6 +1004,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,146 +1075,146 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -1305,52 +1311,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
@@ -1631,15 +1637,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
@@ -1692,876 +1698,826 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="J13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="H14" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5">
-        <v>1001</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="I14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="J14" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="5">
-        <v>1002</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.99</v>
-      </c>
-      <c r="F14" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="5">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1.99</v>
-      </c>
-      <c r="F15" s="5">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E16" s="6">
-        <v>2.99</v>
+        <v>0.99</v>
       </c>
       <c r="F16" s="5">
         <v>-1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="F17" s="5">
         <v>-1</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E18" s="6">
-        <v>11.99</v>
+        <v>2.99</v>
       </c>
       <c r="F18" s="5">
         <v>-1</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="5">
+        <v>1005</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="6">
+        <v>4.99</v>
+      </c>
+      <c r="F19" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="5" t="s">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>1006</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="21" t="s">
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11.99</v>
+      </c>
+      <c r="F20" s="5">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="7">
-        <v>2001</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7">
-        <v>10</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="J20" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="7">
-        <v>2002</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="F20" s="7">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="7">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="8">
-        <v>1.99</v>
-      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="7">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C22" s="7">
         <v>2</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="8">
-        <v>2.99</v>
+        <v>0.99</v>
       </c>
       <c r="F22" s="7">
         <v>-1</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="7">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C23" s="7">
         <v>2</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="8">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="F23" s="7">
         <v>-1</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="7">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7">
         <v>2</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" s="8">
-        <v>11.99</v>
+        <v>2.99</v>
       </c>
       <c r="F24" s="7">
         <v>-1</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="7">
+        <v>2005</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="8">
+        <v>4.99</v>
+      </c>
+      <c r="F25" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I24" s="7" t="s">
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="7">
+        <v>2006</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="8">
+        <v>11.99</v>
+      </c>
+      <c r="F26" s="7">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="9">
-        <v>3001</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="9">
-        <v>3</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9">
-        <v>10</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="H26" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="9" t="s">
+      <c r="J26" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="9">
-        <v>3002</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="9">
-        <v>3</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="F26" s="9">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="9">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9">
         <v>3</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1.99</v>
-      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J27" s="23" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="9">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C28" s="9">
         <v>3</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E28" s="10">
-        <v>2.99</v>
+        <v>0.99</v>
       </c>
       <c r="F28" s="9">
         <v>-1</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J28" s="23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="9">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C29" s="9">
         <v>3</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="10">
-        <v>4.99</v>
+        <v>1.99</v>
       </c>
       <c r="F29" s="9">
         <v>-1</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J29" s="23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="9">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="10">
-        <v>11.99</v>
+        <v>2.99</v>
       </c>
       <c r="F30" s="9">
         <v>-1</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="9">
+        <v>3005</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="F31" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30" s="9" t="s">
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="9">
+        <v>3006</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="23" t="s">
+      <c r="C32" s="9">
+        <v>3</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="10">
+        <v>11.99</v>
+      </c>
+      <c r="F32" s="9">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="11">
+      <c r="H32" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="11">
         <v>4001</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="11">
+      <c r="B33" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="11">
         <v>4</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="12">
         <v>0.99</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F33" s="11">
         <v>1</v>
       </c>
-      <c r="G31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="13">
-        <v>5001</v>
-      </c>
-      <c r="B32" s="14" t="s">
+      <c r="G33" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="13">
-        <v>6</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="13">
-        <v>15.99</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15" t="s">
+      <c r="H33" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I33" s="11"/>
+      <c r="J33" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="25"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="13">
-        <v>5002</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="13">
-        <v>5</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="13">
-        <v>4.99</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="13">
+        <v>5001</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="13">
+        <v>6</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="13">
+        <v>15.99</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="13">
+        <v>5002</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="13">
+        <v>5</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="13">
+        <v>4.99</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="G35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="13">
         <v>5003</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C34" s="16">
+      <c r="B36" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="16">
         <v>5</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="16">
+      <c r="D36" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="16">
         <v>11.99</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="26"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="4">
-        <v>7001</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="4">
-        <v>7</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>11</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
+      <c r="F36" s="16"/>
+      <c r="G36" s="17" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="4">
-        <v>7002</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="4">
-        <v>7</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.99</v>
-      </c>
-      <c r="F36" s="4">
-        <v>11</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="27"/>
-      <c r="J36" s="29" t="s">
-        <v>115</v>
-      </c>
+      <c r="H36" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="4">
-        <v>7003</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>116</v>
+        <v>7001</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C37" s="4">
         <v>7</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>11</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I37" s="27"/>
       <c r="J37" s="29" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="4">
-        <v>7004</v>
+        <v>7002</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" s="4">
         <v>0.99</v>
@@ -2570,18 +2526,78 @@
         <v>11</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I38" s="27"/>
       <c r="J38" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="4">
+        <v>7003</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="4">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F39" s="4">
+        <v>11</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39" s="27"/>
+      <c r="J39" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="4">
+        <v>7004</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>121</v>
       </c>
+      <c r="C40" s="4">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="F40" s="4">
+        <v>11</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="I40" s="27"/>
+      <c r="J40" s="29" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:D12 G12:I12">
+  <conditionalFormatting sqref="A14:D14 G14:I14">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
